--- a/Stuff For Class/Homework Assignments/Assignment 1/tuition.xlsx
+++ b/Stuff For Class/Homework Assignments/Assignment 1/tuition.xlsx
@@ -407,8 +407,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,1727 +439,1727 @@
       <selection pane="topLeft" activeCell="H79" activeCellId="0" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>5180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>7087</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>12031</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>7064</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>6479</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>9076</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>9915</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>14916</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>5444</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>5594</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>9534</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>13709</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>7542</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>12956</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>9378</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>12958</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>11964</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>14628</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>8995</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>14902</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>8172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <v>14396</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>11660</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>9745</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>12147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <v>8386</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>12978</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>10785</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>7008</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <v>12102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <v>6977</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <v>14655</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>5369</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <v>9843</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>6742</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>14608</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>10873</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <v>8745</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E40" s="0" t="n">
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <v>7133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>9403</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>9574</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E43" s="0" t="n">
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <v>12411</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E44" s="0" t="n">
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <v>13846</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E45" s="0" t="n">
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <v>11743</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E46" s="0" t="n">
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <v>10176</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E47" s="0" t="n">
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <v>11174</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E48" s="0" t="n">
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E48" s="1" t="n">
         <v>9485</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E49" s="0" t="n">
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <v>9404</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E50" s="0" t="n">
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <v>12640</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E51" s="0" t="n">
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <v>10260</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E52" s="0" t="n">
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <v>7821</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E53" s="0" t="n">
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <v>13375</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E54" s="0" t="n">
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <v>12814</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E55" s="0" t="n">
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <v>9461</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E56" s="0" t="n">
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <v>12401</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E57" s="0" t="n">
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E57" s="1" t="n">
         <v>10327</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E58" s="0" t="n">
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="1" t="n">
         <v>5200</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E59" s="0" t="n">
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E59" s="1" t="n">
         <v>13674</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E60" s="0" t="n">
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E60" s="1" t="n">
         <v>11388</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E61" s="0" t="n">
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E61" s="1" t="n">
         <v>11967</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E62" s="0" t="n">
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E62" s="1" t="n">
         <v>9901</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E63" s="0" t="n">
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E63" s="1" t="n">
         <v>10445</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E64" s="0" t="n">
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E64" s="1" t="n">
         <v>11464</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E65" s="0" t="n">
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E65" s="1" t="n">
         <v>12729</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E66" s="0" t="n">
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E66" s="1" t="n">
         <v>8671</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E67" s="0" t="n">
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E67" s="1" t="n">
         <v>14912</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E68" s="0" t="n">
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E68" s="1" t="n">
         <v>12477</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E69" s="0" t="n">
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E69" s="1" t="n">
         <v>6853</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E70" s="0" t="n">
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E70" s="1" t="n">
         <v>11835</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="1" t="n">
         <v>9198</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E72" s="0" t="n">
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E72" s="1" t="n">
         <v>5350</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E73" s="0" t="n">
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E73" s="1" t="n">
         <v>11960</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E74" s="0" t="n">
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E74" s="1" t="n">
         <v>11571</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E75" s="0" t="n">
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E75" s="1" t="n">
         <v>13234</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E76" s="0" t="n">
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E76" s="1" t="n">
         <v>8653</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E77" s="0" t="n">
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E77" s="1" t="n">
         <v>13103</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E78" s="0" t="n">
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E78" s="1" t="n">
         <v>9677</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E79" s="0" t="n">
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E79" s="1" t="n">
         <v>12634</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E80" s="0" t="n">
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E80" s="1" t="n">
         <v>7489</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E81" s="0" t="n">
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E81" s="1" t="n">
         <v>6278</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E82" s="0" t="n">
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E82" s="1" t="n">
         <v>11405</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E83" s="0" t="n">
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E83" s="1" t="n">
         <v>14502</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E84" s="0" t="n">
+      <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E84" s="1" t="n">
         <v>9818</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E85" s="0" t="n">
+      <c r="C85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E85" s="1" t="n">
         <v>11019</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B86" s="0" t="s">
+      <c r="A86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E86" s="0" t="n">
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E86" s="1" t="n">
         <v>9468</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E87" s="0" t="n">
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E87" s="1" t="n">
         <v>11276</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E88" s="0" t="n">
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E88" s="1" t="n">
         <v>12633</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E89" s="0" t="n">
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E89" s="1" t="n">
         <v>8210</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E90" s="0" t="n">
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E90" s="1" t="n">
         <v>12805</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E91" s="0" t="n">
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E91" s="1" t="n">
         <v>11038</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E92" s="0" t="n">
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E92" s="1" t="n">
         <v>9704</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E93" s="0" t="n">
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E93" s="1" t="n">
         <v>12543</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E94" s="0" t="n">
+      <c r="C94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E94" s="1" t="n">
         <v>14750</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E95" s="0" t="n">
+      <c r="C95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E95" s="1" t="n">
         <v>11481</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="1" t="n">
         <v>6373</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E97" s="0" t="n">
+      <c r="C97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E97" s="1" t="n">
         <v>13431</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E98" s="0" t="n">
+      <c r="C98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E98" s="1" t="n">
         <v>12094</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E99" s="0" t="n">
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E99" s="1" t="n">
         <v>5761</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E100" s="0" t="n">
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E100" s="1" t="n">
         <v>10663</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E101" s="0" t="n">
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E101" s="1" t="n">
         <v>9349</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E102" s="0" t="n">
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E102" s="1" t="n">
         <v>12978</v>
       </c>
     </row>
